--- a/sample_data/KJSIT_MAY_2023.xlsx
+++ b/sample_data/KJSIT_MAY_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJ\Downloads\PDF\Excel-to-Pdf-Generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJ\Desktop\PDF\Excel-to-Pdf-Generator\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7C6815-69A8-496A-AD75-84A6E72DA750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABA2AAC-A832-4164-B66C-4F1F5FE3E44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>HR EMP CODE</t>
   </si>
@@ -133,13 +133,19 @@
   </si>
   <si>
     <t>Dr Milind U Nemade</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>raj.more@somaiya.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +166,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,11 +213,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,8 +243,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,9 +553,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -533,7 +566,7 @@
     <col min="3" max="31" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,8 +660,11 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>220309</v>
       </c>
@@ -722,8 +758,11 @@
       <c r="AE2" s="3">
         <v>165500</v>
       </c>
+      <c r="AF2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>220046</v>
       </c>
@@ -817,8 +856,11 @@
       <c r="AE3" s="3">
         <v>157300</v>
       </c>
+      <c r="AF3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>220044</v>
       </c>
@@ -912,8 +954,15 @@
       <c r="AE4" s="3">
         <v>149600</v>
       </c>
+      <c r="AF4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AF2" r:id="rId1" xr:uid="{E8502813-6C41-4D2D-9275-427DA8FBC091}"/>
+    <hyperlink ref="AF3:AF4" r:id="rId2" display="raj.more@somaiya.edu" xr:uid="{2DC15EF4-5BA8-436B-9A46-FB730B068509}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample_data/KJSIT_MAY_2023.xlsx
+++ b/sample_data/KJSIT_MAY_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJ\Desktop\PDF\Excel-to-Pdf-Generator\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABA2AAC-A832-4164-B66C-4F1F5FE3E44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25C83E9-FCB1-4F6C-9911-B9446C891F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>HR EMP CODE</t>
   </si>
@@ -243,7 +243,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -553,20 +553,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="31" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="32" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,94 +578,97 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>220309</v>
       </c>
@@ -675,94 +679,97 @@
         <v>100000</v>
       </c>
       <c r="D2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="3">
         <v>120000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>5000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>24000</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>2000</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>3000</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>5000</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>10000</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>2000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>1500</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>5000</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>3000</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>1000</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>2000</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>180500</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>200</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>1800</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>1500</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>800</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <v>5000</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>1000</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>2000</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>4000</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>2000</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>100</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>1500</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>15000</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="3">
         <v>165500</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>220046</v>
       </c>
@@ -773,94 +780,97 @@
         <v>95000</v>
       </c>
       <c r="D3" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E3" s="3">
         <v>115000</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>4500</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>23000</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>1800</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>2800</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>4800</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>9000</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>1800</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>1300</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>4800</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>2800</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>900</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>1800</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>171300</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>180</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="3">
         <v>1600</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V3" s="3">
         <v>1400</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="3">
         <v>700</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X3" s="3">
         <v>4500</v>
       </c>
-      <c r="X3" s="3">
+      <c r="Y3" s="3">
         <v>900</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Z3" s="3">
         <v>1800</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="AA3" s="3">
         <v>3800</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AB3" s="3">
         <v>1800</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AC3" s="3">
         <v>90</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AD3" s="3">
         <v>1400</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AE3" s="3">
         <v>14000</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AF3" s="3">
         <v>157300</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>220044</v>
       </c>
@@ -871,97 +881,100 @@
         <v>90000</v>
       </c>
       <c r="D4" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E4" s="3">
         <v>110000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>4000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>22000</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>1600</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>2600</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>4600</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>8000</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>1600</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>1200</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>4600</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>2600</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>800</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>1600</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>162600</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>160</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>1400</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V4" s="3">
         <v>1300</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W4" s="3">
         <v>600</v>
       </c>
-      <c r="W4" s="3">
+      <c r="X4" s="3">
         <v>4000</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <v>800</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Z4" s="3">
         <v>1600</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AA4" s="3">
         <v>3600</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AB4" s="3">
         <v>1600</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AC4" s="3">
         <v>80</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AD4" s="3">
         <v>1300</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AE4" s="3">
         <v>13000</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AF4" s="3">
         <v>149600</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AF2" r:id="rId1" xr:uid="{E8502813-6C41-4D2D-9275-427DA8FBC091}"/>
-    <hyperlink ref="AF3:AF4" r:id="rId2" display="raj.more@somaiya.edu" xr:uid="{2DC15EF4-5BA8-436B-9A46-FB730B068509}"/>
+    <hyperlink ref="AG2" r:id="rId1" xr:uid="{E8502813-6C41-4D2D-9275-427DA8FBC091}"/>
+    <hyperlink ref="AG3:AG4" r:id="rId2" display="raj.more@somaiya.edu" xr:uid="{2DC15EF4-5BA8-436B-9A46-FB730B068509}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
